--- a/Docs/Dicionario de Dados.xlsx
+++ b/Docs/Dicionario de Dados.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\johns\Desktop\TCC\MPAlugueisLisboa\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP ProBook 640\Desktop\TCC\MPAlugueisLisboa\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2D6751-7FD9-4D8A-A6DF-29534DA808A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC5B1D0-EB4E-4A10-91ED-AE1835754286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="720" windowWidth="29040" windowHeight="15720" xr2:uid="{47970B15-0966-45D8-8208-C78DF7F64898}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{47970B15-0966-45D8-8208-C78DF7F64898}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$E$52</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="160">
   <si>
     <t>Localização do Imovel</t>
   </si>
@@ -48,9 +51,6 @@
     <t>Longitude: indica a longitude geográfica do imóvel.</t>
   </si>
   <si>
-    <t>Tamanho imovel</t>
-  </si>
-  <si>
     <t>ad_characteristics_constructedArea</t>
   </si>
   <si>
@@ -180,9 +180,6 @@
     <t>ad_media_videoNumber: indica o número total de vídeos disponíveis no anúncio do imóvel.)</t>
   </si>
   <si>
-    <t>preço</t>
-  </si>
-  <si>
     <t>ad_price</t>
   </si>
   <si>
@@ -276,9 +273,6 @@
     <t>BASE</t>
   </si>
   <si>
-    <t>VARIAVEO</t>
-  </si>
-  <si>
     <t>DESCRICAO</t>
   </si>
   <si>
@@ -388,14 +382,148 @@
   </si>
   <si>
     <t>Id do imovel</t>
+  </si>
+  <si>
+    <t>Preco_Metro</t>
+  </si>
+  <si>
+    <t>QtdQuartos</t>
+  </si>
+  <si>
+    <t>distrito</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Detalhes</t>
+  </si>
+  <si>
+    <t>elevador</t>
+  </si>
+  <si>
+    <t>andar</t>
+  </si>
+  <si>
+    <t>metros</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>Preco</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>UrlPesquisa</t>
+  </si>
+  <si>
+    <t>FATO</t>
+  </si>
+  <si>
+    <t>IdImovel: identificador único de cada imóvel na base de dados.</t>
+  </si>
+  <si>
+    <t>UrlPesquisa: URL utilizada para acessar a página de pesquisa no site do Idealista a partir da qual o web scraping foi realizado.</t>
+  </si>
+  <si>
+    <t>Url: URL do anúncio do imóvel no site do Idealista.</t>
+  </si>
+  <si>
+    <t>Nome: nome do anúncio do imóvel, que geralmente contém informações como o tipo de imóvel, número de quartos e localização.</t>
+  </si>
+  <si>
+    <t>Preco: preço de locação do imóvel.</t>
+  </si>
+  <si>
+    <t>tipo: tipo de imóvel (apartamento, casa, etc.).</t>
+  </si>
+  <si>
+    <t>metros: área útil do imóvel em metros quadrados.</t>
+  </si>
+  <si>
+    <t>andar: andar em que o imóvel se encontra.</t>
+  </si>
+  <si>
+    <t>elevador: indica se o imóvel possui elevador.</t>
+  </si>
+  <si>
+    <t>Detalhes: informações adicionais sobre o imóvel, como características, mobília, etc.</t>
+  </si>
+  <si>
+    <t>Status: status do anúncio (ativo, inativo, etc.).</t>
+  </si>
+  <si>
+    <t>distrito: distrito em que o imóvel está localizado.</t>
+  </si>
+  <si>
+    <t>QtdQuartos: número de quartos do imóvel.</t>
+  </si>
+  <si>
+    <t>Preco_Metro: preço por metro quadrado do imóvel.</t>
+  </si>
+  <si>
+    <t>Url da Pagina do imovel</t>
+  </si>
+  <si>
+    <t>Url do Imovel</t>
+  </si>
+  <si>
+    <t>Nome do imovel</t>
+  </si>
+  <si>
+    <t>Preço de locação do imovel</t>
+  </si>
+  <si>
+    <t>Tipo de Imovel</t>
+  </si>
+  <si>
+    <t>Area util do imovel</t>
+  </si>
+  <si>
+    <t>Andar do imovel</t>
+  </si>
+  <si>
+    <t>Indicador de Elevador</t>
+  </si>
+  <si>
+    <t>Detalhes Imovel</t>
+  </si>
+  <si>
+    <t>Status do anuncio</t>
+  </si>
+  <si>
+    <t>Distrito do imovel</t>
+  </si>
+  <si>
+    <t>Quantidade de Quartos</t>
+  </si>
+  <si>
+    <t>Preco por metro quadrado</t>
+  </si>
+  <si>
+    <t>Precificação</t>
+  </si>
+  <si>
+    <t>VARIAVEL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -423,8 +551,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91833DD-397B-4478-A1CF-EE89DDD9277B}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,24 +884,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -788,7 +918,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -805,7 +935,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -822,583 +952,826 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
         <v>85</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" t="s">
         <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" t="s">
         <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" t="s">
         <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" t="s">
         <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" t="s">
         <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" t="s">
         <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" t="s">
         <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" t="s">
         <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" t="s">
         <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
         <v>35</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" t="s">
         <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" t="s">
         <v>38</v>
-      </c>
-      <c r="D19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" t="s">
         <v>40</v>
-      </c>
-      <c r="D20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
         <v>42</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" t="s">
         <v>43</v>
-      </c>
-      <c r="D21" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" t="s">
         <v>45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" t="s">
         <v>47</v>
-      </c>
-      <c r="D23" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" t="s">
         <v>49</v>
-      </c>
-      <c r="D24" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" t="s">
         <v>51</v>
-      </c>
-      <c r="C25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" t="s">
         <v>54</v>
-      </c>
-      <c r="C26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E26" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" t="s">
         <v>63</v>
-      </c>
-      <c r="C30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" t="s">
-        <v>112</v>
-      </c>
-      <c r="E30" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D38" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" t="s">
+        <v>150</v>
+      </c>
+      <c r="E45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
         <v>120</v>
       </c>
-      <c r="E38" t="s">
-        <v>81</v>
-      </c>
+      <c r="D50" t="s">
+        <v>155</v>
+      </c>
+      <c r="E50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" t="s">
+        <v>157</v>
+      </c>
+      <c r="E52" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E52" xr:uid="{F91833DD-397B-4478-A1CF-EE89DDD9277B}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/Dicionario de Dados.xlsx
+++ b/Docs/Dicionario de Dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP ProBook 640\Desktop\TCC\MPAlugueisLisboa\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\johns\Desktop\TCC\MPAlugueisLisboa\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC5B1D0-EB4E-4A10-91ED-AE1835754286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B452B8E-3D07-4211-A524-3DBCB3BC43EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{47970B15-0966-45D8-8208-C78DF7F64898}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{47970B15-0966-45D8-8208-C78DF7F64898}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="267">
   <si>
     <t>Localização do Imovel</t>
   </si>
@@ -508,22 +508,335 @@
   </si>
   <si>
     <t>VARIAVEL</t>
+  </si>
+  <si>
+    <t>Ambito Geografico</t>
+  </si>
+  <si>
+    <t>Regiao</t>
+  </si>
+  <si>
+    <t>Cidades</t>
+  </si>
+  <si>
+    <t>qtd Idade 0 -14</t>
+  </si>
+  <si>
+    <t>qtd Idade 15-64</t>
+  </si>
+  <si>
+    <t>qtd idade &gt;65</t>
+  </si>
+  <si>
+    <t>% Idade 0 -14</t>
+  </si>
+  <si>
+    <t>% Idade 15-64</t>
+  </si>
+  <si>
+    <t>% idade &gt;65</t>
+  </si>
+  <si>
+    <t>% cidadÃ£os estrangeiros,em relacao total da populaÃ§Ã£o</t>
+  </si>
+  <si>
+    <t>qtd Hospitais particulares e publicos</t>
+  </si>
+  <si>
+    <t>qtd Farmacias</t>
+  </si>
+  <si>
+    <t>Quantidade construÃ§oes novas</t>
+  </si>
+  <si>
+    <t>qtd escolas - pre-escolar -4 -6 anos</t>
+  </si>
+  <si>
+    <t>qtd escolas - ciclo 1 - 6-10 anos</t>
+  </si>
+  <si>
+    <t>qtd escolas - ciclo 2 - 10 -12 anos</t>
+  </si>
+  <si>
+    <t>qtd escolas - ciclo 3 - 13 -15 anos</t>
+  </si>
+  <si>
+    <t>qtd shows,exibicoes,teatro</t>
+  </si>
+  <si>
+    <t>qtd Cinemas</t>
+  </si>
+  <si>
+    <t>Ganho medio mensal</t>
+  </si>
+  <si>
+    <t>% Desempregados</t>
+  </si>
+  <si>
+    <t>% Poder de compra</t>
+  </si>
+  <si>
+    <t>% Crimes</t>
+  </si>
+  <si>
+    <t>qtd bancos</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>distance_driving_Lisboa_Portugal</t>
+  </si>
+  <si>
+    <t>distance_driving_Porto_Portugal</t>
+  </si>
+  <si>
+    <t>Clima_Ranking</t>
+  </si>
+  <si>
+    <t>Ranking_Geral</t>
+  </si>
+  <si>
+    <t>Ranking_Regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N.Âº mÃ©dio de indivÃ­duos por KmÂ²	</t>
+  </si>
+  <si>
+    <t>Região</t>
+  </si>
+  <si>
+    <t>Âmbito Geográfico: indica a região geográfica do município.</t>
+  </si>
+  <si>
+    <t>Âmbito Geográfico: indica o nome da cidade.</t>
+  </si>
+  <si>
+    <t>Quantidade Idade 0-14</t>
+  </si>
+  <si>
+    <t>Quantidade de Indivíduos com Idade de 0 a 14 anos.</t>
+  </si>
+  <si>
+    <t>Quantidade Idade 15-64</t>
+  </si>
+  <si>
+    <t>Quantidade de Indivíduos com Idade de 15 a 64 anos.</t>
+  </si>
+  <si>
+    <t>Quantidade Idade &gt;65</t>
+  </si>
+  <si>
+    <t>Quantidade de Indivíduos com Idade acima de 65 anos.</t>
+  </si>
+  <si>
+    <t>Percentual Idade 0-14</t>
+  </si>
+  <si>
+    <t>Percentual de Indivíduos com Idade de 0 a 14 anos.</t>
+  </si>
+  <si>
+    <t>Percentual Idade 15-64</t>
+  </si>
+  <si>
+    <t>Percentual de Indivíduos com Idade de 15 a 64 anos.</t>
+  </si>
+  <si>
+    <t>Percentual Idade &gt;65</t>
+  </si>
+  <si>
+    <t>Percentual de Indivíduos com Idade acima de 65 anos.</t>
+  </si>
+  <si>
+    <t>N.º médio de indivíduos por Km²</t>
+  </si>
+  <si>
+    <t>Número médio de indivíduos por quilômetro quadrado.</t>
+  </si>
+  <si>
+    <t>Percentual Cidadãos Estrangeiros</t>
+  </si>
+  <si>
+    <t>Percentual de Cidadãos Estrangeiros em relação à população total.</t>
+  </si>
+  <si>
+    <t>Quantidade Hospitais (Particulares e Público</t>
+  </si>
+  <si>
+    <t>s) Quantidade de Hospitais Particulares e Públicos.</t>
+  </si>
+  <si>
+    <t>Quantidade Farmácias</t>
+  </si>
+  <si>
+    <t>Quantidade de Farmácias.</t>
+  </si>
+  <si>
+    <t>Quantidade Construções Novas</t>
+  </si>
+  <si>
+    <t>Quantidade de Construções Novas.</t>
+  </si>
+  <si>
+    <t>Quantidade Escolas Pré-Escolar (4-6 anos)</t>
+  </si>
+  <si>
+    <t>Quantidade de Escolas de Pré-Escolar (4 a 6 anos).</t>
+  </si>
+  <si>
+    <t>Quantidade Escolas Ciclo 1 (6-10 anos)</t>
+  </si>
+  <si>
+    <t>Quantidade de Escolas do Ciclo 1 (6 a 10 anos).</t>
+  </si>
+  <si>
+    <t>Quantidade Escolas Ciclo 2 (10-12 anos)</t>
+  </si>
+  <si>
+    <t>Quantidade de Escolas do Ciclo 2 (10 a 12 anos).</t>
+  </si>
+  <si>
+    <t>Quantidade Escolas Ciclo 3 (13-15 anos)</t>
+  </si>
+  <si>
+    <t>Quantidade de Escolas do Ciclo 3 (13 a 15 anos).</t>
+  </si>
+  <si>
+    <t>Quantidade Shows, Exibições, Teatro</t>
+  </si>
+  <si>
+    <t>Quantidade de Shows, Exibições e Teatros.</t>
+  </si>
+  <si>
+    <t>Quantidade Cinemas</t>
+  </si>
+  <si>
+    <t>Quantidade de Cinemas.</t>
+  </si>
+  <si>
+    <t>Ganho Médio Mensal</t>
+  </si>
+  <si>
+    <t>Ganho Médio Mensal.</t>
+  </si>
+  <si>
+    <t>Percentual Desempregados</t>
+  </si>
+  <si>
+    <t>Percentual de Desempregados.</t>
+  </si>
+  <si>
+    <t>Percentual Poder de Compra</t>
+  </si>
+  <si>
+    <t>Percentual de Poder de Compra.</t>
+  </si>
+  <si>
+    <t>Percentual Crimes</t>
+  </si>
+  <si>
+    <t>Percentual de Crimes.</t>
+  </si>
+  <si>
+    <t>Quantidade de Bancos.</t>
+  </si>
+  <si>
+    <t>Latitude: indica a latitude geográfica do município.</t>
+  </si>
+  <si>
+    <t>Longitude: indica a longitude geográfica do município.</t>
+  </si>
+  <si>
+    <t>Endereço</t>
+  </si>
+  <si>
+    <t>Endereço: contém o endereço completo do imóvel, incluindo rua, número, cidade, estado e código postal.</t>
+  </si>
+  <si>
+    <t>Distância (dirigindo) de Lisboa, Portugal</t>
+  </si>
+  <si>
+    <t>Distância (em condução) entre o município e Lisboa, Portugal.</t>
+  </si>
+  <si>
+    <t>Distância (dirigindo) do Porto, Portugal</t>
+  </si>
+  <si>
+    <t>Distância (em condução) entre o município e Porto, Portugal.</t>
+  </si>
+  <si>
+    <t>Ranking Clima</t>
+  </si>
+  <si>
+    <t>Ranking do Clima.</t>
+  </si>
+  <si>
+    <t>Ranking Geral</t>
+  </si>
+  <si>
+    <t>Ranking Geral do município.</t>
+  </si>
+  <si>
+    <t>Ranking Regional</t>
+  </si>
+  <si>
+    <t>Ranking Regional do município.</t>
+  </si>
+  <si>
+    <t>Quantidade Bancos</t>
+  </si>
+  <si>
+    <t>Nivel geografico</t>
+  </si>
+  <si>
+    <t>MUNICIPIOS</t>
+  </si>
+  <si>
+    <t>Distribuiçao Faixa Etaria</t>
+  </si>
+  <si>
+    <t>densidade populacional</t>
+  </si>
+  <si>
+    <t>Serviços de Saude</t>
+  </si>
+  <si>
+    <t>Desenvolvimento urbano</t>
+  </si>
+  <si>
+    <t>Educação</t>
+  </si>
+  <si>
+    <t>Cultura e Lazer</t>
+  </si>
+  <si>
+    <t>Emprego e Renda</t>
+  </si>
+  <si>
+    <t>Segurança</t>
+  </si>
+  <si>
+    <t>Localização Municipio</t>
+  </si>
+  <si>
+    <t>Distancia Liboa</t>
+  </si>
+  <si>
+    <t>Distancia Porto</t>
+  </si>
+  <si>
+    <t>Ranaking Regional</t>
+  </si>
+  <si>
+    <t>NOME LOGICO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -551,10 +864,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -869,7 +1183,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91833DD-397B-4478-A1CF-EE89DDD9277B}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -877,9 +1191,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.85546875" customWidth="1"/>
     <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="13" max="13" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="41.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -893,7 +1210,7 @@
         <v>159</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>266</v>
       </c>
       <c r="E1" t="s">
         <v>81</v>
@@ -1144,7 +1461,7 @@
       <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>30</v>
       </c>
       <c r="D16" t="s">
@@ -1766,8 +2083,566 @@
         <v>144</v>
       </c>
     </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>253</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>160</v>
+      </c>
+      <c r="D53" t="s">
+        <v>160</v>
+      </c>
+      <c r="E53" t="s">
+        <v>252</v>
+      </c>
+    </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="1"/>
+      <c r="A54" t="s">
+        <v>253</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" t="s">
+        <v>191</v>
+      </c>
+      <c r="E54" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>253</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" t="s">
+        <v>162</v>
+      </c>
+      <c r="E55" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>253</v>
+      </c>
+      <c r="B56" t="s">
+        <v>254</v>
+      </c>
+      <c r="C56" t="s">
+        <v>163</v>
+      </c>
+      <c r="D56" t="s">
+        <v>194</v>
+      </c>
+      <c r="E56" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>253</v>
+      </c>
+      <c r="B57" t="s">
+        <v>254</v>
+      </c>
+      <c r="C57" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" t="s">
+        <v>196</v>
+      </c>
+      <c r="E57" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>253</v>
+      </c>
+      <c r="B58" t="s">
+        <v>254</v>
+      </c>
+      <c r="C58" t="s">
+        <v>165</v>
+      </c>
+      <c r="D58" t="s">
+        <v>198</v>
+      </c>
+      <c r="E58" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>253</v>
+      </c>
+      <c r="B59" t="s">
+        <v>254</v>
+      </c>
+      <c r="C59" t="s">
+        <v>166</v>
+      </c>
+      <c r="D59" t="s">
+        <v>200</v>
+      </c>
+      <c r="E59" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>253</v>
+      </c>
+      <c r="B60" t="s">
+        <v>254</v>
+      </c>
+      <c r="C60" t="s">
+        <v>167</v>
+      </c>
+      <c r="D60" t="s">
+        <v>202</v>
+      </c>
+      <c r="E60" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>253</v>
+      </c>
+      <c r="B61" t="s">
+        <v>254</v>
+      </c>
+      <c r="C61" t="s">
+        <v>168</v>
+      </c>
+      <c r="D61" t="s">
+        <v>204</v>
+      </c>
+      <c r="E61" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>253</v>
+      </c>
+      <c r="B62" t="s">
+        <v>255</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D62" t="s">
+        <v>206</v>
+      </c>
+      <c r="E62" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>253</v>
+      </c>
+      <c r="B63" t="s">
+        <v>255</v>
+      </c>
+      <c r="C63" t="s">
+        <v>169</v>
+      </c>
+      <c r="D63" t="s">
+        <v>208</v>
+      </c>
+      <c r="E63" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>253</v>
+      </c>
+      <c r="B64" t="s">
+        <v>256</v>
+      </c>
+      <c r="C64" t="s">
+        <v>170</v>
+      </c>
+      <c r="D64" t="s">
+        <v>210</v>
+      </c>
+      <c r="E64" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>253</v>
+      </c>
+      <c r="B65" t="s">
+        <v>256</v>
+      </c>
+      <c r="C65" t="s">
+        <v>171</v>
+      </c>
+      <c r="D65" t="s">
+        <v>212</v>
+      </c>
+      <c r="E65" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>253</v>
+      </c>
+      <c r="B66" t="s">
+        <v>257</v>
+      </c>
+      <c r="C66" t="s">
+        <v>172</v>
+      </c>
+      <c r="D66" t="s">
+        <v>214</v>
+      </c>
+      <c r="E66" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>253</v>
+      </c>
+      <c r="B67" t="s">
+        <v>258</v>
+      </c>
+      <c r="C67" t="s">
+        <v>173</v>
+      </c>
+      <c r="D67" t="s">
+        <v>216</v>
+      </c>
+      <c r="E67" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>253</v>
+      </c>
+      <c r="B68" t="s">
+        <v>258</v>
+      </c>
+      <c r="C68" t="s">
+        <v>174</v>
+      </c>
+      <c r="D68" t="s">
+        <v>218</v>
+      </c>
+      <c r="E68" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>253</v>
+      </c>
+      <c r="B69" t="s">
+        <v>258</v>
+      </c>
+      <c r="C69" t="s">
+        <v>175</v>
+      </c>
+      <c r="D69" t="s">
+        <v>220</v>
+      </c>
+      <c r="E69" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>253</v>
+      </c>
+      <c r="B70" t="s">
+        <v>258</v>
+      </c>
+      <c r="C70" t="s">
+        <v>176</v>
+      </c>
+      <c r="D70" t="s">
+        <v>222</v>
+      </c>
+      <c r="E70" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>253</v>
+      </c>
+      <c r="B71" t="s">
+        <v>259</v>
+      </c>
+      <c r="C71" t="s">
+        <v>177</v>
+      </c>
+      <c r="D71" t="s">
+        <v>224</v>
+      </c>
+      <c r="E71" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>253</v>
+      </c>
+      <c r="B72" t="s">
+        <v>259</v>
+      </c>
+      <c r="C72" t="s">
+        <v>178</v>
+      </c>
+      <c r="D72" t="s">
+        <v>226</v>
+      </c>
+      <c r="E72" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>253</v>
+      </c>
+      <c r="B73" t="s">
+        <v>260</v>
+      </c>
+      <c r="C73" t="s">
+        <v>179</v>
+      </c>
+      <c r="D73" t="s">
+        <v>228</v>
+      </c>
+      <c r="E73" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>253</v>
+      </c>
+      <c r="B74" t="s">
+        <v>260</v>
+      </c>
+      <c r="C74" t="s">
+        <v>180</v>
+      </c>
+      <c r="D74" t="s">
+        <v>230</v>
+      </c>
+      <c r="E74" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>253</v>
+      </c>
+      <c r="B75" t="s">
+        <v>260</v>
+      </c>
+      <c r="C75" t="s">
+        <v>181</v>
+      </c>
+      <c r="D75" t="s">
+        <v>232</v>
+      </c>
+      <c r="E75" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>253</v>
+      </c>
+      <c r="B76" t="s">
+        <v>261</v>
+      </c>
+      <c r="C76" t="s">
+        <v>182</v>
+      </c>
+      <c r="D76" t="s">
+        <v>234</v>
+      </c>
+      <c r="E76" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>253</v>
+      </c>
+      <c r="B77" t="s">
+        <v>257</v>
+      </c>
+      <c r="C77" t="s">
+        <v>183</v>
+      </c>
+      <c r="D77" t="s">
+        <v>251</v>
+      </c>
+      <c r="E77" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>253</v>
+      </c>
+      <c r="B78" t="s">
+        <v>262</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>253</v>
+      </c>
+      <c r="B79" t="s">
+        <v>262</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>253</v>
+      </c>
+      <c r="B80" t="s">
+        <v>262</v>
+      </c>
+      <c r="C80" t="s">
+        <v>184</v>
+      </c>
+      <c r="D80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E80" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>253</v>
+      </c>
+      <c r="B81" t="s">
+        <v>263</v>
+      </c>
+      <c r="C81" t="s">
+        <v>185</v>
+      </c>
+      <c r="D81" t="s">
+        <v>241</v>
+      </c>
+      <c r="E81" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>253</v>
+      </c>
+      <c r="B82" t="s">
+        <v>264</v>
+      </c>
+      <c r="C82" t="s">
+        <v>186</v>
+      </c>
+      <c r="D82" t="s">
+        <v>243</v>
+      </c>
+      <c r="E82" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>253</v>
+      </c>
+      <c r="B83" t="s">
+        <v>245</v>
+      </c>
+      <c r="C83" t="s">
+        <v>187</v>
+      </c>
+      <c r="D83" t="s">
+        <v>245</v>
+      </c>
+      <c r="E83" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>253</v>
+      </c>
+      <c r="B84" t="s">
+        <v>247</v>
+      </c>
+      <c r="C84" t="s">
+        <v>188</v>
+      </c>
+      <c r="D84" t="s">
+        <v>247</v>
+      </c>
+      <c r="E84" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>253</v>
+      </c>
+      <c r="B85" t="s">
+        <v>265</v>
+      </c>
+      <c r="C85" t="s">
+        <v>189</v>
+      </c>
+      <c r="D85" t="s">
+        <v>249</v>
+      </c>
+      <c r="E85" t="s">
+        <v>250</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E52" xr:uid="{F91833DD-397B-4478-A1CF-EE89DDD9277B}"/>

--- a/Docs/Dicionario de Dados.xlsx
+++ b/Docs/Dicionario de Dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\johns\Desktop\TCC\MPAlugueisLisboa\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2E2103-BE84-4618-99A1-263A1F07568D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F23ACAB-62CC-4893-BA08-CF19C3972CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{47970B15-0966-45D8-8208-C78DF7F64898}"/>
+    <workbookView xWindow="28680" yWindow="720" windowWidth="29040" windowHeight="15720" xr2:uid="{47970B15-0966-45D8-8208-C78DF7F64898}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="385">
   <si>
     <t>Localização do Imovel</t>
   </si>
@@ -1170,6 +1170,21 @@
   </si>
   <si>
     <t>Distancia_dirigindo_de_Porto_Portugal</t>
+  </si>
+  <si>
+    <t>Caracteristicas do Imovel</t>
+  </si>
+  <si>
+    <t>Condições do imovel</t>
+  </si>
+  <si>
+    <t>Eficiencia Energetica do imovel</t>
+  </si>
+  <si>
+    <t>owner do Imovel</t>
+  </si>
+  <si>
+    <t>Precificação Imovel</t>
   </si>
 </sst>
 </file>
@@ -1535,14 +1550,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91833DD-397B-4478-A1CF-EE89DDD9277B}">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58.85546875" customWidth="1"/>
     <col min="5" max="5" width="41.140625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="41.140625" customWidth="1"/>
@@ -1582,7 +1597,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>380</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1605,7 +1620,7 @@
         <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>380</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1628,7 +1643,7 @@
         <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>380</v>
       </c>
       <c r="D4" t="s">
         <v>76</v>
@@ -1651,7 +1666,7 @@
         <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>380</v>
       </c>
       <c r="D5" t="s">
         <v>114</v>
@@ -1674,7 +1689,7 @@
         <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>380</v>
       </c>
       <c r="D6" t="s">
         <v>78</v>
@@ -1697,7 +1712,7 @@
         <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>380</v>
       </c>
       <c r="D7" t="s">
         <v>78</v>
@@ -1720,7 +1735,7 @@
         <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>380</v>
       </c>
       <c r="D8" t="s">
         <v>115</v>
@@ -1743,7 +1758,7 @@
         <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>380</v>
       </c>
       <c r="D9" t="s">
         <v>66</v>
@@ -1766,7 +1781,7 @@
         <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>380</v>
       </c>
       <c r="D10" t="s">
         <v>64</v>
@@ -1789,7 +1804,7 @@
         <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>380</v>
       </c>
       <c r="D11" t="s">
         <v>84</v>
@@ -1812,7 +1827,7 @@
         <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>380</v>
       </c>
       <c r="D12" t="s">
         <v>116</v>
@@ -1835,7 +1850,7 @@
         <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>380</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -1858,7 +1873,7 @@
         <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>380</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1881,7 +1896,7 @@
         <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>380</v>
       </c>
       <c r="D15" t="s">
         <v>68</v>
@@ -1904,7 +1919,7 @@
         <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>380</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -1927,7 +1942,7 @@
         <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>380</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
@@ -1950,7 +1965,7 @@
         <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>380</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
@@ -1973,7 +1988,7 @@
         <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>380</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
@@ -1996,7 +2011,7 @@
         <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>380</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -2019,7 +2034,7 @@
         <v>122</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>380</v>
       </c>
       <c r="D21" t="s">
         <v>111</v>
@@ -2042,7 +2057,7 @@
         <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>380</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -2065,7 +2080,7 @@
         <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>380</v>
       </c>
       <c r="D23" t="s">
         <v>118</v>
@@ -2088,7 +2103,7 @@
         <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>380</v>
       </c>
       <c r="D24" t="s">
         <v>70</v>
@@ -2111,7 +2126,7 @@
         <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>380</v>
       </c>
       <c r="D25" t="s">
         <v>117</v>
@@ -2134,7 +2149,7 @@
         <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>381</v>
       </c>
       <c r="D26" t="s">
         <v>28</v>
@@ -2157,7 +2172,7 @@
         <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>381</v>
       </c>
       <c r="D27" t="s">
         <v>30</v>
@@ -2180,7 +2195,7 @@
         <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>381</v>
       </c>
       <c r="D28" t="s">
         <v>32</v>
@@ -2203,7 +2218,7 @@
         <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>382</v>
       </c>
       <c r="D29" t="s">
         <v>39</v>
@@ -2226,7 +2241,7 @@
         <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>382</v>
       </c>
       <c r="D30" t="s">
         <v>35</v>
@@ -2249,7 +2264,7 @@
         <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>382</v>
       </c>
       <c r="D31" t="s">
         <v>37</v>
@@ -2548,7 +2563,7 @@
         <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>365</v>
       </c>
       <c r="D44" t="s">
         <v>121</v>
@@ -2571,7 +2586,7 @@
         <v>122</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>365</v>
       </c>
       <c r="D45" t="s">
         <v>120</v>
@@ -2594,7 +2609,7 @@
         <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>383</v>
       </c>
       <c r="D46" t="s">
         <v>59</v>
@@ -2617,7 +2632,7 @@
         <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>52</v>
+        <v>383</v>
       </c>
       <c r="D47" t="s">
         <v>53</v>
@@ -2640,7 +2655,7 @@
         <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>383</v>
       </c>
       <c r="D48" t="s">
         <v>55</v>
@@ -2663,7 +2678,7 @@
         <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>383</v>
       </c>
       <c r="D49" t="s">
         <v>57</v>
@@ -2686,7 +2701,7 @@
         <v>122</v>
       </c>
       <c r="C50" t="s">
-        <v>148</v>
+        <v>384</v>
       </c>
       <c r="D50" t="s">
         <v>119</v>
@@ -2709,7 +2724,7 @@
         <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>148</v>
+        <v>384</v>
       </c>
       <c r="D51" t="s">
         <v>50</v>
@@ -2732,7 +2747,7 @@
         <v>122</v>
       </c>
       <c r="C52" t="s">
-        <v>148</v>
+        <v>384</v>
       </c>
       <c r="D52" t="s">
         <v>110</v>
@@ -3238,7 +3253,7 @@
         <v>231</v>
       </c>
       <c r="C74" t="s">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D74" t="s">
         <v>150</v>
@@ -3261,7 +3276,7 @@
         <v>231</v>
       </c>
       <c r="C75" t="s">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D75" t="s">
         <v>152</v>
@@ -3284,7 +3299,7 @@
         <v>231</v>
       </c>
       <c r="C76" t="s">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D76" t="s">
         <v>151</v>
@@ -3490,7 +3505,7 @@
       <c r="B85" t="s">
         <v>231</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="2" t="s">
         <v>234</v>
       </c>
       <c r="D85" t="s">
